--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/99/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/99/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2472472472472473</v>
+        <v>0.4258425842584259</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1167.167167167167</v>
+        <v>1976.437643764377</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05055055055055056</v>
+        <v>0.06296629662966297</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5485485485485485</v>
+        <v>0.1373137313731373</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1231.231231231231</v>
+        <v>854.3754375437544</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705.7057057057058</v>
+        <v>692.7092709270927</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.07407407407408</v>
+        <v>712.6588658865886</v>
       </c>
     </row>
   </sheetData>
